--- a/Household-Data-Generation/daily_consumption.xlsx
+++ b/Household-Data-Generation/daily_consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/Data-Generation/Household-Data-Generation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\Data-Generation\Household-Data-Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED269733-80CA-BF48-9B4A-70DE42310063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE44A74-8D37-4199-815C-C42618299FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="daily_consumption" sheetId="1" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2025,7 +2025,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="400"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2056,7 +2056,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2069,7 +2069,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
                   <a:t>kWh</a:t>
                 </a:r>
               </a:p>
@@ -2088,7 +2088,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2194,7 +2194,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2348,18 +2348,13 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2382,7 +2377,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="400"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3670,9 +3665,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3710,7 +3705,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3816,7 +3811,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3958,7 +3953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3968,13 +3963,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4003,7 +3998,7 @@
         <v>80289.749000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4024,7 +4019,7 @@
         <v>72224.632000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4046,7 +4041,7 @@
         <v>71001.160000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4068,7 +4063,7 @@
         <v>64895.490000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4085,7 +4080,7 @@
         <v>70985.681000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4102,7 +4097,7 @@
         <v>62458.629000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4119,7 +4114,7 @@
         <v>66056.011999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4139,7 +4134,7 @@
         <v>67625.474999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4159,7 +4154,7 @@
         <v>66910.369999999981</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4176,7 +4171,7 @@
         <v>78544.769000000015</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>75849.454999999958</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4216,7 +4211,7 @@
         <v>81317.794999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4227,7 +4222,7 @@
         <v>2582.6379999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4238,7 +4233,7 @@
         <v>2215.0700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4249,7 +4244,7 @@
         <v>2418.8130000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4260,7 +4255,7 @@
         <v>3065.8090000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4271,7 +4266,7 @@
         <v>2793.9830000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4288,7 +4283,7 @@
         <v>0.46724041944632305</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4305,7 +4300,7 @@
         <v>0.64691972400773168</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>1.0339060657600521</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4339,7 +4334,7 @@
         <v>1.3202583261178857</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4356,7 +4351,7 @@
         <v>1.1164390463479528</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4373,7 +4368,7 @@
         <v>1.2481949611798235</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4390,7 +4385,7 @@
         <v>1.2969888948185371</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4407,7 +4402,7 @@
         <v>1.3598627736071356</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4424,7 +4419,7 @@
         <v>1.2240450620733383</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4441,7 +4436,7 @@
         <v>0.66326867674663337</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4458,7 +4453,7 @@
         <v>0.56434948675636532</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4475,7 +4470,7 @@
         <v>0.58850214765415121</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4486,7 +4481,7 @@
         <v>2525.3649999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4501,7 +4496,7 @@
         <v>80289.749000000011</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4512,7 +4507,7 @@
         <v>2144.1460000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4523,7 +4518,7 @@
         <v>2380.694</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4534,7 +4529,7 @@
         <v>2598.1860000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4545,7 +4540,7 @@
         <v>2644.6770000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4556,7 +4551,7 @@
         <v>2264.4630000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4567,7 +4562,7 @@
         <v>2694.5459999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4578,7 +4573,7 @@
         <v>2988.681</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4589,7 +4584,7 @@
         <v>2233.038</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4600,7 +4595,7 @@
         <v>2497.172</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4611,7 +4606,7 @@
         <v>2609.0970000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4622,7 +4617,7 @@
         <v>2345.529</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4633,7 +4628,7 @@
         <v>2498.13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4644,7 +4639,7 @@
         <v>2367.3119999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4655,7 +4650,7 @@
         <v>2738.819</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4666,7 +4661,7 @@
         <v>2529.5500000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4677,7 +4672,7 @@
         <v>2538.8220000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4688,7 +4683,7 @@
         <v>2260.7809999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4699,7 +4694,7 @@
         <v>2449.7170000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4710,7 +4705,7 @@
         <v>2207.8589999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4721,7 +4716,7 @@
         <v>2514.5709999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4732,7 +4727,7 @@
         <v>3170.4850000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4743,7 +4738,7 @@
         <v>2407.3580000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4754,7 +4749,7 @@
         <v>2242.2260000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4765,7 +4760,7 @@
         <v>2562.366</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4776,7 +4771,7 @@
         <v>2272.8629999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4787,7 +4782,7 @@
         <v>2185.4360000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4798,7 +4793,7 @@
         <v>2807.0819999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4809,7 +4804,7 @@
         <v>2796.7489999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4824,7 +4819,7 @@
         <v>72224.632000000012</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>2331.6709999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4846,7 +4841,7 @@
         <v>2133.0659999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4857,7 +4852,7 @@
         <v>2141.2249999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4868,7 +4863,7 @@
         <v>2361.2629999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4879,7 +4874,7 @@
         <v>2438.643</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4890,7 +4885,7 @@
         <v>2813.0650000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4901,7 +4896,7 @@
         <v>2055.8939999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4912,7 +4907,7 @@
         <v>2082.2600000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4923,7 +4918,7 @@
         <v>2232.9470000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4934,7 +4929,7 @@
         <v>2084.9389999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4945,7 +4940,7 @@
         <v>2255.4780000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4956,7 +4951,7 @@
         <v>2375.9810000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4967,7 +4962,7 @@
         <v>2441.7629999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4978,7 +4973,7 @@
         <v>1878.3219999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4989,7 +4984,7 @@
         <v>2065.2570000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5000,7 +4995,7 @@
         <v>2240.9079999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5011,7 +5006,7 @@
         <v>2306.5079999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5022,7 +5017,7 @@
         <v>2248.7069999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5033,7 +5028,7 @@
         <v>2445.5529999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5044,7 +5039,7 @@
         <v>2701.9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5055,7 +5050,7 @@
         <v>2149.4899999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5066,7 +5061,7 @@
         <v>2267.924</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5077,7 +5072,7 @@
         <v>2480.4340000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5088,7 +5083,7 @@
         <v>2136.5070000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5099,7 +5094,7 @@
         <v>2421.002</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5110,7 +5105,7 @@
         <v>2332.8380000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5121,7 +5116,7 @@
         <v>2631.7919999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5132,7 +5127,7 @@
         <v>2186.5990000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5143,7 +5138,7 @@
         <v>2357.933</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5154,7 +5149,7 @@
         <v>2158.672</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5169,7 +5164,7 @@
         <v>71001.160000000018</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5180,7 +5175,7 @@
         <v>2212.7979999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5191,7 +5186,7 @@
         <v>2343.098</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5202,7 +5197,7 @@
         <v>3028.4609999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5213,7 +5208,7 @@
         <v>2422.2350000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5224,7 +5219,7 @@
         <v>2224.4050000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5235,7 +5230,7 @@
         <v>2386.5140000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5246,7 +5241,7 @@
         <v>2161.9189999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5257,7 +5252,7 @@
         <v>2318.34</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5268,7 +5263,7 @@
         <v>2614.4090000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5279,7 +5274,7 @@
         <v>2696.2159999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5290,7 +5285,7 @@
         <v>1888.4290000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5301,7 +5296,7 @@
         <v>2362.393</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5312,7 +5307,7 @@
         <v>2175.4969999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5323,7 +5318,7 @@
         <v>2115.2829999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5334,7 +5329,7 @@
         <v>2382.6709999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5345,7 +5340,7 @@
         <v>2767.4430000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5356,7 +5351,7 @@
         <v>2497.3580000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5367,7 +5362,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5378,7 +5373,7 @@
         <v>1756.682</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5389,7 +5384,7 @@
         <v>1804.99</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5400,7 +5395,7 @@
         <v>1572.711</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5411,7 +5406,7 @@
         <v>1840.0119999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5422,7 +5417,7 @@
         <v>1865.114</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5433,7 +5428,7 @@
         <v>1976.6769999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5444,7 +5439,7 @@
         <v>1670.2829999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5455,7 +5450,7 @@
         <v>1601.585</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5466,7 +5461,7 @@
         <v>1697.81</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5477,7 +5472,7 @@
         <v>1782.2549999999901</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5488,7 +5483,7 @@
         <v>1830.8530000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5503,7 +5498,7 @@
         <v>64895.490000000005</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>2591.1280000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5525,7 +5520,7 @@
         <v>2213.1990000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5536,7 +5531,7 @@
         <v>2189.9349999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5547,7 +5542,7 @@
         <v>2452.6019999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5558,7 +5553,7 @@
         <v>2268.0590000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5569,7 +5564,7 @@
         <v>2301.2310000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5580,7 +5575,7 @@
         <v>2318.1709999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5591,7 +5586,7 @@
         <v>2772.1109999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5602,7 +5597,7 @@
         <v>2014.021</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5613,7 +5608,7 @@
         <v>2300.9929999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5624,7 +5619,7 @@
         <v>2206.13</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5635,7 +5630,7 @@
         <v>2172.6410000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5646,7 +5641,7 @@
         <v>2100.1999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5657,7 +5652,7 @@
         <v>2573.9259999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5668,7 +5663,7 @@
         <v>2379.4569999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5679,7 +5674,7 @@
         <v>2038.8</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5690,7 +5685,7 @@
         <v>2242.2739999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5701,7 +5696,7 @@
         <v>2168.8820000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5712,7 +5707,7 @@
         <v>2047.9110000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5723,7 +5718,7 @@
         <v>2352.3820000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5734,7 +5729,7 @@
         <v>2401.7399999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5745,7 +5740,7 @@
         <v>2708.6790000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5756,7 +5751,7 @@
         <v>2285.3980000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5767,7 +5762,7 @@
         <v>2075.491</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -5778,7 +5773,7 @@
         <v>2105.2950000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -5789,7 +5784,7 @@
         <v>2257.893</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -5800,7 +5795,7 @@
         <v>2317.8539999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5811,7 +5806,7 @@
         <v>2324.36</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5822,7 +5817,7 @@
         <v>2383.7489999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5833,7 +5828,7 @@
         <v>2279.971</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5848,7 +5843,7 @@
         <v>70985.681000000011</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -5859,7 +5854,7 @@
         <v>2233.3040000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -5870,7 +5865,7 @@
         <v>2188.0749999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -5881,7 +5876,7 @@
         <v>2427.3530000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -5892,7 +5887,7 @@
         <v>2143.759</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5903,7 +5898,7 @@
         <v>1923.5989999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5914,7 +5909,7 @@
         <v>1647.4359999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5925,7 +5920,7 @@
         <v>1828.259</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5936,7 +5931,7 @@
         <v>1703.8119999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5947,7 +5942,7 @@
         <v>1834.3530000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5958,7 +5953,7 @@
         <v>1705.3789999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5969,7 +5964,7 @@
         <v>1819.9459999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5980,7 +5975,7 @@
         <v>2011.9449999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5991,7 +5986,7 @@
         <v>1760.3409999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6002,7 +5997,7 @@
         <v>1917.01</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6013,7 +6008,7 @@
         <v>1903.251</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6024,7 +6019,7 @@
         <v>1962.6220000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6035,7 +6030,7 @@
         <v>1777.1969999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6046,7 +6041,7 @@
         <v>2108.7280000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6057,7 +6052,7 @@
         <v>2552.0259999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6068,7 +6063,7 @@
         <v>2088.3200000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6079,7 +6074,7 @@
         <v>2399.15</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6090,7 +6085,7 @@
         <v>2294.835</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6101,7 +6096,7 @@
         <v>2227.944</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6112,7 +6107,7 @@
         <v>2188.2040000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -6123,7 +6118,7 @@
         <v>2525.7370000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6134,7 +6129,7 @@
         <v>2468.779</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6145,7 +6140,7 @@
         <v>2119.5479999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6156,7 +6151,7 @@
         <v>2088.596</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6167,7 +6162,7 @@
         <v>2152.1750000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6182,7 +6177,7 @@
         <v>62458.629000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6193,7 +6188,7 @@
         <v>2238.895</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6204,7 +6199,7 @@
         <v>2546.1370000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6215,7 +6210,7 @@
         <v>2677.4870000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6226,7 +6221,7 @@
         <v>2048.5309999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6237,7 +6232,7 @@
         <v>2156.317</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6248,7 +6243,7 @@
         <v>2307.373</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6259,7 +6254,7 @@
         <v>2085.6819999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6270,7 +6265,7 @@
         <v>2152.5520000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6281,7 +6276,7 @@
         <v>2531.268</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6292,7 +6287,7 @@
         <v>2385.692</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6303,7 +6298,7 @@
         <v>1917.3520000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6314,7 +6309,7 @@
         <v>2014.075</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6325,7 +6320,7 @@
         <v>1971.442</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -6336,7 +6331,7 @@
         <v>1950.8040000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -6347,7 +6342,7 @@
         <v>1874.0550000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -6358,7 +6353,7 @@
         <v>2099.65</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -6369,7 +6364,7 @@
         <v>2359.1010000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -6380,7 +6375,7 @@
         <v>1861.6289999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -6391,7 +6386,7 @@
         <v>1986.585</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6402,7 +6397,7 @@
         <v>1993.3430000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6413,7 +6408,7 @@
         <v>1895.069</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6424,7 +6419,7 @@
         <v>2034.251</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6435,7 +6430,7 @@
         <v>2072.8580000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6446,7 +6441,7 @@
         <v>2322.1680000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6457,7 +6452,7 @@
         <v>1881.45</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6468,7 +6463,7 @@
         <v>2140.3780000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6479,7 +6474,7 @@
         <v>1906.5150000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6490,7 +6485,7 @@
         <v>1927.79</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6501,7 +6496,7 @@
         <v>2020.9639999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6512,7 +6507,7 @@
         <v>2133.076</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6527,7 +6522,7 @@
         <v>66056.011999999988</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>2226.317</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6549,7 +6544,7 @@
         <v>2106.5030000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6560,7 +6555,7 @@
         <v>2113.712</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6571,7 +6566,7 @@
         <v>2047.9010000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6582,7 +6577,7 @@
         <v>1854.973</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6593,7 +6588,7 @@
         <v>2137.8870000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6604,7 +6599,7 @@
         <v>2112.1849999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6615,7 +6610,7 @@
         <v>1984.9759999999901</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6626,7 +6621,7 @@
         <v>1923.731</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6637,7 +6632,7 @@
         <v>2029.204</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6648,7 +6643,7 @@
         <v>2127.9949999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6659,7 +6654,7 @@
         <v>2090.3620000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6670,7 +6665,7 @@
         <v>2212.7530000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6681,7 +6676,7 @@
         <v>2532.299</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6692,7 +6687,7 @@
         <v>1958.0830000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6703,7 +6698,7 @@
         <v>2041.193</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6714,7 +6709,7 @@
         <v>1825.8989999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6725,7 +6720,7 @@
         <v>2273.009</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6736,7 +6731,7 @@
         <v>2146.1289999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6747,7 +6742,7 @@
         <v>2478.3670000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6758,7 +6753,7 @@
         <v>2537.33</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6769,7 +6764,7 @@
         <v>2172.1080000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6780,7 +6775,7 @@
         <v>2135.0729999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6791,7 +6786,7 @@
         <v>2126.701</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6802,7 +6797,7 @@
         <v>2229.8919999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6813,7 +6808,7 @@
         <v>2310.8449999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6824,7 +6819,7 @@
         <v>2525.5520000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6835,7 +6830,7 @@
         <v>2761.6869999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6846,7 +6841,7 @@
         <v>2168.3429999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6857,7 +6852,7 @@
         <v>2248.6379999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6872,7 +6867,7 @@
         <v>67625.474999999991</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -6883,7 +6878,7 @@
         <v>2264.761</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -6894,7 +6889,7 @@
         <v>2133.0920000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6905,7 +6900,7 @@
         <v>2144.6909999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -6916,7 +6911,7 @@
         <v>2076.9520000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -6927,7 +6922,7 @@
         <v>1940.6569999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -6938,7 +6933,7 @@
         <v>1982.3330000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -6949,7 +6944,7 @@
         <v>1978.3050000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -6960,7 +6955,7 @@
         <v>2197.2550000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -6971,7 +6966,7 @@
         <v>2021.4179999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -6982,7 +6977,7 @@
         <v>2248.2939999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -6993,7 +6988,7 @@
         <v>2518.549</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7004,7 +6999,7 @@
         <v>2021.67</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7015,7 +7010,7 @@
         <v>1961.6369999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -7026,7 +7021,7 @@
         <v>2085.9569999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -7037,7 +7032,7 @@
         <v>2130.5639999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -7048,7 +7043,7 @@
         <v>2056.7309999999902</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -7059,7 +7054,7 @@
         <v>2205.6669999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7070,7 +7065,7 @@
         <v>2736.7269999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7081,7 +7076,7 @@
         <v>2181.0909999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -7092,7 +7087,7 @@
         <v>2158.3870000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -7103,7 +7098,7 @@
         <v>2470.462</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -7114,7 +7109,7 @@
         <v>2293.2379999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7125,7 +7120,7 @@
         <v>2270.4920000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7136,7 +7131,7 @@
         <v>2423.9050000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7147,7 +7142,7 @@
         <v>2699.2959999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7158,7 +7153,7 @@
         <v>2018.894</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7169,7 +7164,7 @@
         <v>2486.46</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7180,7 +7175,7 @@
         <v>2323.5970000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7191,7 +7186,7 @@
         <v>2504.2440000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7206,7 +7201,7 @@
         <v>66910.369999999981</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7217,7 +7212,7 @@
         <v>2752.1729999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7228,7 +7223,7 @@
         <v>2836.509</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7239,7 +7234,7 @@
         <v>2433.3240000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7250,7 +7245,7 @@
         <v>2250.5320000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -7261,7 +7256,7 @@
         <v>2491.2959999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -7272,7 +7267,7 @@
         <v>2284.86</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -7283,7 +7278,7 @@
         <v>2380.7829999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -7294,7 +7289,7 @@
         <v>2723.0239999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -7305,7 +7300,7 @@
         <v>2725.5039999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -7316,7 +7311,7 @@
         <v>2326.0160000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -7327,7 +7322,7 @@
         <v>2421.4340000000002</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -7338,7 +7333,7 @@
         <v>2420.7429999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -7349,7 +7344,7 @@
         <v>2407.2440000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -7360,7 +7355,7 @@
         <v>2445.8240000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -7371,7 +7366,7 @@
         <v>2779.5590000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -7382,7 +7377,7 @@
         <v>2681.4470000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -7393,7 +7388,7 @@
         <v>2492.84</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -7404,7 +7399,7 @@
         <v>2435.1799999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -7415,7 +7410,7 @@
         <v>2560.1179999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -7426,7 +7421,7 @@
         <v>2538.2199999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -7437,7 +7432,7 @@
         <v>2225.1849999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -7448,7 +7443,7 @@
         <v>2497.87</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -7459,7 +7454,7 @@
         <v>2991.5770000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -7470,7 +7465,7 @@
         <v>2314.797</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -7481,7 +7476,7 @@
         <v>2408.2959999999998</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -7492,7 +7487,7 @@
         <v>2600.5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -7503,7 +7498,7 @@
         <v>2444.8629999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -7514,7 +7509,7 @@
         <v>2477.915</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -7525,7 +7520,7 @@
         <v>2926.5320000000002</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -7536,7 +7531,7 @@
         <v>2853.4290000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -7551,7 +7546,7 @@
         <v>78544.769000000015</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -7562,7 +7557,7 @@
         <v>2254.0169999999998</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -7573,7 +7568,7 @@
         <v>2205.5790000000002</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -7584,7 +7579,7 @@
         <v>2295.4789999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -7595,7 +7590,7 @@
         <v>2490.3249999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -7606,7 +7601,7 @@
         <v>2489.4079999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -7617,7 +7612,7 @@
         <v>2768.058</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -7628,7 +7623,7 @@
         <v>2291.7130000000002</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -7639,7 +7634,7 @@
         <v>2540.5929999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -7650,7 +7645,7 @@
         <v>2413.395</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -7661,7 +7656,7 @@
         <v>2427.491</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -7672,7 +7667,7 @@
         <v>2412.3519999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -7683,7 +7678,7 @@
         <v>2731.8809999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -7694,7 +7689,7 @@
         <v>2930.7190000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -7705,7 +7700,7 @@
         <v>2380.799</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -7716,7 +7711,7 @@
         <v>2394.5879999999902</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -7727,7 +7722,7 @@
         <v>2505.8629999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -7738,7 +7733,7 @@
         <v>2468.4430000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -7749,7 +7744,7 @@
         <v>2558.924</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -7760,7 +7755,7 @@
         <v>2604.145</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -7771,7 +7766,7 @@
         <v>2901.08</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -7782,7 +7777,7 @@
         <v>2384.4879999999998</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -7793,7 +7788,7 @@
         <v>2495.7890000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -7804,7 +7799,7 @@
         <v>2347.3589999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -7815,7 +7810,7 @@
         <v>2591.1509999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -7826,7 +7821,7 @@
         <v>2724.2150000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -7837,7 +7832,7 @@
         <v>2663.0630000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -7848,7 +7843,7 @@
         <v>2988.2919999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -7859,7 +7854,7 @@
         <v>2427.8429999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -7870,7 +7865,7 @@
         <v>2685.2570000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -7885,7 +7880,7 @@
         <v>75849.454999999958</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -7896,7 +7891,7 @@
         <v>2419.3009999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -7907,7 +7902,7 @@
         <v>2553.27</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -7918,7 +7913,7 @@
         <v>2596.4789999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -7929,7 +7924,7 @@
         <v>2916.645</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -7940,7 +7935,7 @@
         <v>2461.7629999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -7951,7 +7946,7 @@
         <v>2369.2719999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -7962,7 +7957,7 @@
         <v>2517.6419999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -7973,7 +7968,7 @@
         <v>2554.2730000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -7984,7 +7979,7 @@
         <v>2492.9639999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -7995,7 +7990,7 @@
         <v>2831.654</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -8006,7 +8001,7 @@
         <v>3035.7649999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -8017,7 +8012,7 @@
         <v>2636.3919999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -8028,7 +8023,7 @@
         <v>2567.21</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -8039,7 +8034,7 @@
         <v>2531.6390000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -8050,7 +8045,7 @@
         <v>2584.5349999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -8061,7 +8056,7 @@
         <v>2601.1469999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -8072,7 +8067,7 @@
         <v>2713.0859999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -8083,7 +8078,7 @@
         <v>3051.904</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -8094,7 +8089,7 @@
         <v>2390.2179999999998</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -8105,7 +8100,7 @@
         <v>2494.1849999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -8116,7 +8111,7 @@
         <v>2258.9349999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -8127,7 +8122,7 @@
         <v>2780.8449999999998</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -8138,7 +8133,7 @@
         <v>2435.8229999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -8149,7 +8144,7 @@
         <v>3176.297</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -8160,7 +8155,7 @@
         <v>3181.0059999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -8171,7 +8166,7 @@
         <v>2412.7820000000002</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -8182,7 +8177,7 @@
         <v>2461.9290000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -8193,7 +8188,7 @@
         <v>2432.0810000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -8204,7 +8199,7 @@
         <v>2547.1889999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -8215,7 +8210,7 @@
         <v>2535.7579999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
